--- a/Planung_Zeiteinteilung.xlsx
+++ b/Planung_Zeiteinteilung.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{4469DC61-7019-40AB-A835-13BA3FE947C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539ED85-97B2-431A-B09A-0E52D24DD31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>Implementierung</t>
   </si>
   <si>
-    <t>Präsentation</t>
-  </si>
-  <si>
     <t>Poster</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Gliederung / Thema festlegen</t>
+  </si>
+  <si>
+    <t>Präsentation vorbereiten</t>
   </si>
 </sst>
 </file>
@@ -915,24 +915,6 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1001,6 +983,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,11 +1450,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1562,12 +1562,12 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="21"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
@@ -1600,15 +1600,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
@@ -1641,15 +1641,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
@@ -1682,13 +1682,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
@@ -1699,22 +1699,22 @@
         <f ca="1"/>
         <v>44439</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="2"/>
@@ -1722,12 +1722,12 @@
         <f ca="1">YEAR(DATE(Kalender1Jahr,Kalender1MonatOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender1Jahr,Kalender1MonatOption+1,1),"MMMM")</f>
         <v>September</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="2"/>
@@ -1794,15 +1794,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
@@ -1835,13 +1835,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
@@ -1874,13 +1874,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
@@ -1913,13 +1913,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
@@ -1952,13 +1952,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
@@ -1969,22 +1969,22 @@
         <f ca="1"/>
         <v>44474</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="2"/>
@@ -1992,12 +1992,12 @@
         <f ca="1">YEAR(DATE(Kalender2Jahr,Kalender2MonatOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender2Jahr,Kalender2MonatOption+1,1),"MMMM")</f>
         <v>Oktober</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="2"/>
@@ -2064,13 +2064,13 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10">
@@ -2103,13 +2103,13 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
@@ -2142,16 +2142,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28" t="s">
-        <v>10</v>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2185,13 +2185,13 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
@@ -2224,17 +2224,17 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="32"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10">
@@ -2245,22 +2245,22 @@
         <f ca="1"/>
         <v>44502</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="2"/>
@@ -2268,12 +2268,12 @@
         <f ca="1">YEAR(DATE(Kalender3Jahr,Kalender3MonatOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="15" t="str">
+      <c r="C43" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender3Jahr,Kalender3MonatOption+1,1),"MMMM")</f>
         <v>November</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="2"/>
@@ -2340,15 +2340,15 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="10">
@@ -2381,14 +2381,14 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="40" t="s">
-        <v>11</v>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2517,22 +2517,22 @@
         <f ca="1"/>
         <v>44537</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="2"/>
@@ -2540,12 +2540,12 @@
         <f ca="1">YEAR(DATE(Kalender4Jahr,Kalender4MonatOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="15" t="str">
+      <c r="C57" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender4Jahr,Kalender4MonatOption+1,1),"MMMM")</f>
         <v>Dezember</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="2"/>
@@ -2785,22 +2785,22 @@
         <f ca="1"/>
         <v>44565</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A71" s="2"/>
@@ -2808,12 +2808,12 @@
         <f ca="1">YEAR(DATE(Kalender5Jahr,Kalender5MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C71" s="15" t="str">
+      <c r="C71" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender5Jahr,Kalender5MonatOption+1,1),"MMMM")</f>
         <v>Januar</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="2"/>
@@ -3053,22 +3053,22 @@
         <f ca="1"/>
         <v>44593</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A85" s="2"/>
@@ -3076,12 +3076,12 @@
         <f ca="1">YEAR(DATE(Kalender6Jahr,Kalender6MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C85" s="15" t="str">
+      <c r="C85" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender6Jahr,Kalender6MonatOption+1,1),"MMMM")</f>
         <v>Februar</v>
       </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="2"/>
@@ -3321,22 +3321,22 @@
         <f ca="1"/>
         <v>44628</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A99" s="2"/>
@@ -3344,12 +3344,12 @@
         <f ca="1">YEAR(DATE(Kalender7Jahr,Kalender7MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C99" s="15" t="str">
+      <c r="C99" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender7Jahr,Kalender7MonatOption+1,1),"MMMM")</f>
         <v>März</v>
       </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="2"/>
@@ -3589,22 +3589,22 @@
         <f ca="1"/>
         <v>44656</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A113" s="2"/>
@@ -3612,12 +3612,12 @@
         <f ca="1">YEAR(DATE(Kalender8Jahr,Kalender8MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C113" s="15" t="str">
+      <c r="C113" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender8Jahr,Kalender8MonatOption+1,1),"MMMM")</f>
         <v>April</v>
       </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="2"/>
@@ -3857,22 +3857,22 @@
         <f ca="1"/>
         <v>44684</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="D125" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A127" s="2"/>
@@ -3880,12 +3880,12 @@
         <f ca="1">YEAR(DATE(Kalender9Jahr,Kalender9MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C127" s="15" t="str">
+      <c r="C127" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender9Jahr,Kalender9MonatOption+1,1),"MMMM")</f>
         <v>Mai</v>
       </c>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="2"/>
@@ -4125,34 +4125,34 @@
         <f ca="1"/>
         <v>44712</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="D139" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
+      <c r="E139" s="37"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="37"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="39"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Kalender10Jahr,Kalender10MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="15" t="str">
+      <c r="C141" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender10Jahr,Kalender10MonatOption+1,1),"MMMM")</f>
         <v>Juni</v>
       </c>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="2"/>
@@ -4391,34 +4391,34 @@
         <f ca="1"/>
         <v>44747</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D153" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="37"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="39"/>
+      <c r="G154" s="39"/>
+      <c r="H154" s="39"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Kalender11Jahr,Kalender11MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="15" t="str">
+      <c r="C155" s="35" t="str">
         <f ca="1">TEXT(DATE(Kalender11Jahr,Kalender11MonatOption+1,1),"MMMM")</f>
         <v>Juli</v>
       </c>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="35"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="2"/>
@@ -4657,45 +4657,25 @@
         <f ca="1"/>
         <v>44775</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D167" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
+      <c r="E167" s="37"/>
+      <c r="F167" s="37"/>
+      <c r="G167" s="37"/>
+      <c r="H167" s="37"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="39"/>
+      <c r="G168" s="39"/>
+      <c r="H168" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4712,6 +4692,26 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4820,6 +4820,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5040,15 +5049,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5059,6 +5059,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E064F5-287A-4749-B81B-14A9CFF48002}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B0EC2F5-DB17-4B75-9677-570CB7A949FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5077,14 +5085,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E064F5-287A-4749-B81B-14A9CFF48002}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F033DEB-E0CE-477C-A830-2CEC4FBEB4C7}">
   <ds:schemaRefs>

--- a/Planung_Zeiteinteilung.xlsx
+++ b/Planung_Zeiteinteilung.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539ED85-97B2-431A-B09A-0E52D24DD31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A00FFB6-E79A-4716-BFBE-2DBF2F4F2E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>MONTAG</t>
   </si>
@@ -121,15 +121,6 @@
   </si>
   <si>
     <t>Aufgabenstellung / Einleitung</t>
-  </si>
-  <si>
-    <t>Grundlagen / Anforderungen</t>
-  </si>
-  <si>
-    <t>Architektur</t>
-  </si>
-  <si>
-    <t>Implementierung</t>
   </si>
   <si>
     <t>Poster</t>
@@ -148,6 +139,15 @@
   </si>
   <si>
     <t>Präsentation vorbereiten</t>
+  </si>
+  <si>
+    <t>Architektur / Grundlagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anforderungen (festlegen) / Grundlagen  </t>
+  </si>
+  <si>
+    <t>Implementierung / Grundlagen(fertig)</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
     <xf numFmtId="0" fontId="12" fillId="36" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -993,11 +993,11 @@
     <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,11 +1450,11 @@
         <f ca="1">YEAR(TODAY())</f>
         <v>2021</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1565,7 +1565,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6" s="15"/>
     </row>
@@ -1608,7 +1608,9 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
@@ -1641,13 +1643,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
@@ -1699,22 +1699,20 @@
         <f ca="1"/>
         <v>44439</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="2"/>
@@ -1722,12 +1720,12 @@
         <f ca="1">YEAR(DATE(Kalender1Jahr,Kalender1MonatOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C15" s="35" t="str">
+      <c r="C15" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender1Jahr,Kalender1MonatOption+1,1),"MMMM")</f>
         <v>September</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="2"/>
@@ -1799,7 +1797,7 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
@@ -1980,11 +1978,11 @@
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="2"/>
@@ -1992,12 +1990,12 @@
         <f ca="1">YEAR(DATE(Kalender2Jahr,Kalender2MonatOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C29" s="35" t="str">
+      <c r="C29" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender2Jahr,Kalender2MonatOption+1,1),"MMMM")</f>
         <v>Oktober</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="2"/>
@@ -2145,13 +2143,13 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2226,13 +2224,13 @@
     <row r="40" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="23"/>
       <c r="C40" s="23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H40" s="26"/>
     </row>
@@ -2256,11 +2254,11 @@
     <row r="42" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="2"/>
@@ -2268,12 +2266,12 @@
         <f ca="1">YEAR(DATE(Kalender3Jahr,Kalender3MonatOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C43" s="35" t="str">
+      <c r="C43" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender3Jahr,Kalender3MonatOption+1,1),"MMMM")</f>
         <v>November</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="2"/>
@@ -2343,7 +2341,7 @@
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
@@ -2388,7 +2386,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2528,11 +2526,11 @@
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="2"/>
@@ -2540,12 +2538,12 @@
         <f ca="1">YEAR(DATE(Kalender4Jahr,Kalender4MonatOption+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="C57" s="35" t="str">
+      <c r="C57" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender4Jahr,Kalender4MonatOption+1,1),"MMMM")</f>
         <v>Dezember</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="2"/>
@@ -2796,11 +2794,11 @@
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A71" s="2"/>
@@ -2808,12 +2806,12 @@
         <f ca="1">YEAR(DATE(Kalender5Jahr,Kalender5MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C71" s="35" t="str">
+      <c r="C71" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender5Jahr,Kalender5MonatOption+1,1),"MMMM")</f>
         <v>Januar</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="2"/>
@@ -3064,11 +3062,11 @@
     <row r="84" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A85" s="2"/>
@@ -3076,12 +3074,12 @@
         <f ca="1">YEAR(DATE(Kalender6Jahr,Kalender6MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C85" s="35" t="str">
+      <c r="C85" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender6Jahr,Kalender6MonatOption+1,1),"MMMM")</f>
         <v>Februar</v>
       </c>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="2"/>
@@ -3332,11 +3330,11 @@
     <row r="98" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A99" s="2"/>
@@ -3344,12 +3342,12 @@
         <f ca="1">YEAR(DATE(Kalender7Jahr,Kalender7MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C99" s="35" t="str">
+      <c r="C99" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender7Jahr,Kalender7MonatOption+1,1),"MMMM")</f>
         <v>März</v>
       </c>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="2"/>
@@ -3600,11 +3598,11 @@
     <row r="112" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A113" s="2"/>
@@ -3612,12 +3610,12 @@
         <f ca="1">YEAR(DATE(Kalender8Jahr,Kalender8MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C113" s="35" t="str">
+      <c r="C113" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender8Jahr,Kalender8MonatOption+1,1),"MMMM")</f>
         <v>April</v>
       </c>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="2"/>
@@ -3868,11 +3866,11 @@
     <row r="126" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A127" s="2"/>
@@ -3880,12 +3878,12 @@
         <f ca="1">YEAR(DATE(Kalender9Jahr,Kalender9MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C127" s="35" t="str">
+      <c r="C127" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender9Jahr,Kalender9MonatOption+1,1),"MMMM")</f>
         <v>Mai</v>
       </c>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="2"/>
@@ -4136,23 +4134,23 @@
     <row r="140" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
-      <c r="F140" s="39"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="1">
         <f ca="1">YEAR(DATE(Kalender10Jahr,Kalender10MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C141" s="35" t="str">
+      <c r="C141" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender10Jahr,Kalender10MonatOption+1,1),"MMMM")</f>
         <v>Juni</v>
       </c>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="2"/>
@@ -4402,23 +4400,23 @@
     <row r="154" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
-      <c r="F154" s="39"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="39"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="35"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="35"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="1">
         <f ca="1">YEAR(DATE(Kalender11Jahr,Kalender11MonatOption+1,1))</f>
         <v>2022</v>
       </c>
-      <c r="C155" s="35" t="str">
+      <c r="C155" s="38" t="str">
         <f ca="1">TEXT(DATE(Kalender11Jahr,Kalender11MonatOption+1,1),"MMMM")</f>
         <v>Juli</v>
       </c>
-      <c r="D155" s="35"/>
-      <c r="E155" s="35"/>
+      <c r="D155" s="38"/>
+      <c r="E155" s="38"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="2"/>
@@ -4668,14 +4666,34 @@
     <row r="168" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
-      <c r="F168" s="39"/>
-      <c r="G168" s="39"/>
-      <c r="H168" s="39"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C99:E99"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D139:H139"/>
     <mergeCell ref="D140:H140"/>
@@ -4692,26 +4710,6 @@
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C155:E155"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D83:H83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
@@ -4820,15 +4818,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5049,6 +5038,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5059,14 +5057,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E064F5-287A-4749-B81B-14A9CFF48002}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B0EC2F5-DB17-4B75-9677-570CB7A949FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5085,6 +5075,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E064F5-287A-4749-B81B-14A9CFF48002}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F033DEB-E0CE-477C-A830-2CEC4FBEB4C7}">
   <ds:schemaRefs>
